--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E4EEC0-E624-7346-8E11-08D6C6A32C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF15828-2669-F945-A1F5-238AA9C83D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22600" yWindow="4680" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="15200" yWindow="2700" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -338,98 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TGE-3302-HualienResort-04.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-03.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-05.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-06.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-07.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-08.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-09.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-10.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-11.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-12.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-13.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-14.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-15.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-16.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-17.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-18.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-19.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-20.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-21.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-22.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-23.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TGE-3302-HualienResort-24.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -937,6 +845,98 @@
     <t>洄瀾門市是首間也是亞洲首間以「貨櫃」打造的貨櫃屋門市，建築外觀由建築大師隈研吾設計，以曾駐足過紐約、巴爾的摩、馬賽、巴塞隆納等世界各大城市碼頭的 29 個貨櫃為主體堆疊打造出倒金字塔型的四層建築，賦予貨櫃新生命。
 &lt;br&gt;&lt;br&gt;
 貨櫃交疊的鏤空處以大面積的採光天窗，讓日光層層灑落，有如陽光穿透樹林般，在徜徉自然中啜飲咖啡，呼應了花蓮作為大自然特別眷顧的地方特色，享受獨一無二的星巴克體驗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-04.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-05.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-06.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-07.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-08.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-09.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-10.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-11.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-12.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-13.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-14.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-15.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-16.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-17.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-18.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-19.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-20.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-21.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-22.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-23.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,10 +1338,10 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1404,20 +1404,20 @@
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="32">
@@ -1434,20 +1434,20 @@
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="96">
@@ -1464,20 +1464,20 @@
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>79</v>
@@ -1524,20 +1524,20 @@
         <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="96">
@@ -1554,22 +1554,22 @@
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="208">
@@ -1586,19 +1586,19 @@
         <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="128">
@@ -1615,22 +1615,22 @@
         <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="96">
@@ -1647,22 +1647,22 @@
         <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="160">
@@ -1679,22 +1679,22 @@
         <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="96">
@@ -1711,22 +1711,22 @@
         <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="256">
@@ -1743,19 +1743,19 @@
         <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128">
@@ -1772,22 +1772,22 @@
         <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="256">
@@ -1804,19 +1804,19 @@
         <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="224">
@@ -1833,19 +1833,19 @@
         <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="96">
@@ -1862,19 +1862,19 @@
         <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="80">
@@ -1891,22 +1891,22 @@
         <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="160">
@@ -1923,22 +1923,22 @@
         <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="80">
@@ -1955,19 +1955,19 @@
         <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="80">
@@ -1984,22 +1984,22 @@
         <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="192">
@@ -2016,19 +2016,19 @@
         <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="80">
@@ -2045,22 +2045,22 @@
         <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="96">
@@ -2077,22 +2077,22 @@
         <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="272">
@@ -2109,22 +2109,22 @@
         <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="176">
@@ -2141,22 +2141,22 @@
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="160">
@@ -2173,19 +2173,19 @@
         <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="224">
@@ -2202,19 +2202,19 @@
         <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="96">
@@ -2231,22 +2231,22 @@
         <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF15828-2669-F945-A1F5-238AA9C83D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E8F4C9-215B-EE40-905A-B44CA1AB2818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="2700" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="4280" yWindow="2000" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,26 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TGE-3302-HualienResort-24.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-25.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-26.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-27.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGE-3302-HualienResort-28.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.taiwan.net.tw/m1.aspx?sNo=0001124&amp;id=9488</t>
   </si>
   <si>
@@ -937,6 +913,30 @@
   </si>
   <si>
     <t>fig/TGE-3302-HualienResort-23.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-24.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-25.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-26.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-27.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-28.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,18 +1338,18 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="51.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" customWidth="1"/>
@@ -1360,16 +1360,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -1392,861 +1392,861 @@
     </row>
     <row r="2" spans="1:10" ht="128">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="32">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="96">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="320">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="96">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="208">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="128">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="96">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="160">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="96">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="256">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="256">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="224">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="96">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="80">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="160">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="80">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="80">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="192">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="80">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="96">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="272">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="176">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="160">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="224">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="96">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E8F4C9-215B-EE40-905A-B44CA1AB2818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED25998F-5DC9-9D47-9B78-83C346941241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2000" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="19780" yWindow="3320" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="234">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,12 +939,30 @@
     <t>fig/TGE-3302-HualienResort-28.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇德瑩農場有著紐西蘭牧場的感覺，但是又有美麗的山景，寬闊的海景和夢幻海洋泡泡球屋，還有很多拍照的造景，及很多活動可以參加。來崇德瑩農場玩上大半天也不是問題。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chongdefarm.com/</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-29.jpg</t>
+  </si>
+  <si>
+    <t>09:00 - 06:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -975,6 +993,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1001,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1042,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,13 +1362,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2249,6 +2276,38 @@
         <v>189</v>
       </c>
     </row>
+    <row r="30" spans="1:10" ht="64">
+      <c r="A30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED25998F-5DC9-9D47-9B78-83C346941241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4296F277-B96A-D04C-8644-4C4BAA777CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="3320" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="22580" yWindow="2160" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="298">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,9 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://chikemswissfarm.bnbhl.net/</t>
-  </si>
-  <si>
     <t>位於海拔1,000公尺處的『小瑞士農場』擁有了絕佳視野的地理環境及廣達四公頃的金針花田，農場四周讓金針花海包圍，不論您身處何處都可以看到金針花燦爛的美景，農場的右側還有著彷彿小瑞士山丘的美景，哪怕您只是坐在這裡發呆，四周的美景就能讓您感覺像是在國外度假般的享受。
 &lt;br&gt;&lt;br&gt;
 赤柯山的金針花季從每年的８月至９月，滿山遍野的金針花將整個山頭染成金黃色，壯觀又華麗的景色讓每一個遊客們都陶醉在花海裡；金針開花的時間很短暫，短短的一天就凋謝了，也因此贏得了「一日美人」的稱號，雖然花開稍縱即逝，但每一株金針擁有五個花苞，會輪流開花。因此民眾只要把握好金針花盛開的時機，來到赤柯山就可以欣賞這東部僅有的美景。</t>
@@ -940,21 +937,262 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>崇德瑩農場有著紐西蘭牧場的感覺，但是又有美麗的山景，寬闊的海景和夢幻海洋泡泡球屋，還有很多拍照的造景，及很多活動可以參加。來崇德瑩農場玩上大半天也不是問題。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chongdefarm.com/</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-29.jpg</t>
+  </si>
+  <si>
+    <t>09:00 - 06:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>砂卡礑步道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山月吊橋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七高地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛山呼庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石門班哨所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楓林步道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夢幻湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新天堂樂園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂卡礑步道原本只開放遊客步行至五間屋後折返，經修復後，從入口可以直行至終點「三間屋」，全長約4.1公里，砂卡礑溪的河床上滿布大大小小的壘石，以大理石與片麻岩最多，搭配藍綠相間水色及山腰的石鑿步道，是這段路程中最美的風景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8621100#321、322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣秀林鄉富世村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tour-hualien.hl.gov.tw/topic/hike/224</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-30.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-31.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-32.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-34.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-35.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-36.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-37.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-38.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-39.jpg</t>
+  </si>
+  <si>
+    <t>燕子口步道現有簡易的人車分道設施，惟路面狹窄，經常造成交通壅塞情況，因此太管處便在這個路段，新開鑿兩座隧道，及興建一座橋樑，讓車輛行駛隧道，舊公路則改成單向之步道及車道，工程完成後，步道可延伸到錐麓斷崖，讓遊客能在步道上自由欣賞峽谷景觀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8621100#6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣秀林鄉中橫公路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tour-hualien.hl.gov.tw/POI/26</t>
+  </si>
+  <si>
+    <t>http://tour-hualien.hl.gov.tw/POI/214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+花蓮縣壽豐鄉台11線6.5公里處產業道路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七高地是一處能夠環景360度視野的景點，這塊區域因海拔高度77公尺，故又被稱為七七高地，之前是駐軍的管制區，進入的道路僅有狹小的戰備道，兩旁雜草茂密，汽車進出不方便，可將車停至入口處。
+沿著道路進入約數百公尺，便會來到一處廢棄的砲陣地，再往前行數十公尺，便能抵達最北端的制高點，這有一處廢棄的營舍，其二樓平臺，就是展望四周風景的最佳地點，能俯瞰花蓮溪出海口，這裡也是海岸山脈的最北端。
+夏季時也要注意蟲蚊蛇蟻，或是酷熱中暑的風險。除此之外，不論是愛好攝影或是欣賞風景，七七高地在各個景點標準裡，都算得進是值得推薦的旅遊名單中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tour-hualien.hl.gov.tw/POI/55</t>
+  </si>
+  <si>
+    <t>3-8601400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣壽豐鄉牛山39之5號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛山位於水璉、番薯寮坑至磯崎之間，為花東沿海五處自然保護區之一，牛山鼻的曲折紋理更是優良的地質教室之一，牛山早期是阿美族的牧牛耕種之地，阿美族稱為「呼庭」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.travelking.com.tw/tourguide/scenery105701.html</t>
+  </si>
+  <si>
+    <t>位於花蓮豐濱鄉的石門班哨角休憩區，因原為海防部隊的班哨所在地而得名，在班哨廢棄後經重新整治，並設有小燈塔、雙心雕塑、大理石愛心石雕等裝置，距離石門洞、石門休憩區約500公尺，前往石梯坪亦不到4公里，在班哨角可一覽360度海景，是台11線上另一處可休憩之處。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣豐濱鄉台11線60.5公里處</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣吉安鄉大山橋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8230751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楓林步道沿途共設置6座觀景台，海拔約300至400公尺，單程步行時間約為2小時，步道坡度緩和，行走不費力，可以騎單車、機車，甚至開車任選一段步行，是一處適合親子同樂踏青遊春郊的好去處。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tour-hualien.hl.gov.tw/POI/39</t>
+  </si>
+  <si>
+    <t>雲山水生態園區為私人土地，夢幻湖也是由人工開鑿而成，如詩如畫的美景雖讓這裡成為觀光勝地，目開也開放讓民眾參觀，但園區內還是有許多私人住宅及土地是不對外開放的，前來享受美景的同時，別忘了輕聲細語及尊重當地居民的隱私，園區車輛禁止進入。
+雲山水自然生態農莊位於花蓮壽豐鄉，花東縱谷中央山脈及海岸山脈之間，占地約24公頃，其中夢幻湖面積大約4公頃，清澈可見裡面的小魚，自然而然的也吸引到許多候鳥、鳥群到這裡來覓食、定居，園區的生態系統就變得更加多元、縝密；此外，園區四周種植了多種棕櫚科樹木，以及依照季節性開花的植物、闊葉林等等，故一年四季的景色都不大相同，每個季節都有特別迷人的地方，這裡同時也是許多攝影愛好者，爭相取景的地方呢！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8656060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣壽豐鄉豐坪路二段2巷201弄18號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tour-hualien.hl.gov.tw/POI/150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newparadiso.tw/</t>
+  </si>
+  <si>
+    <t>平日 09:30-21:00
+假日 09:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣吉安鄉南濱路一段503號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以擁有「亞洲唯一」貨櫃星巴克而聞名的新天堂樂園，將「連結地球、溝通世界」之構想為其定位，除設有潮流商品專櫃外，還有影城、美食等，是座樓高四層的花蓮新型態複合式商場。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8421155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-8671326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00–17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taroko.gov.tw/zh-tw/Tourism/AttractionDetail?id=323</t>
+  </si>
+  <si>
     <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崇德瑩農場有著紐西蘭牧場的感覺，但是又有美麗的山景，寬闊的海景和夢幻海洋泡泡球屋，還有很多拍照的造景，及很多活動可以參加。來崇德瑩農場玩上大半天也不是問題。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chongdefarm.com/</t>
-  </si>
-  <si>
-    <t>fig/TGE-3302-HualienResort-29.jpg</t>
-  </si>
-  <si>
-    <t>09:00 - 06:00</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>03-8612528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從布洛灣伊達斯廳旁邊的步道走進去，可以來到山月吊橋。橋長196公尺，橋面寬2.5公尺，距離溪谷約152公尺，從布洛灣臺地邊緣跨越立霧溪谷，是太魯閣國家公園跨距最長、距離溪谷落差最大的吊橋，從橋上俯瞰，立霧溪蜿蜒曲折，而兩岸山勢陡峻，層層相疊，視覺可以從溪谷向上延伸至遠山。往東眺望是溪畔一帶的立霧溪谷，往西則可以欣賞燕子口險峻的峽谷地形，氣勢磅薄。
+從伊達斯廳至吊橋北岸平臺地步道全長500公尺，均為無障礙步道，輪椅及嬰兒車都可暢行無阻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00~16:30（每個月第1週、第3週的週一為設備養護日不開放，如遇國定假日則順延1天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣秀林鄉232號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,6 +1284,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1362,13 +1603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1393,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -1441,7 +1682,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>84</v>
@@ -1471,7 +1712,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>107</v>
@@ -1501,7 +1742,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>111</v>
@@ -1531,7 +1772,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>78</v>
@@ -1561,7 +1802,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>80</v>
@@ -1593,10 +1834,10 @@
         <v>116</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="208">
@@ -1622,7 +1863,7 @@
         <v>122</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>119</v>
@@ -1654,7 +1895,7 @@
         <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>92</v>
@@ -1686,7 +1927,7 @@
         <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>97</v>
@@ -1706,22 +1947,22 @@
         <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="96">
@@ -1750,7 +1991,7 @@
         <v>106</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>102</v>
@@ -1779,7 +2020,7 @@
         <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>127</v>
@@ -1811,7 +2052,7 @@
         <v>126</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>123</v>
@@ -1840,7 +2081,7 @@
         <v>130</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>128</v>
@@ -1869,7 +2110,7 @@
         <v>134</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>132</v>
@@ -1898,7 +2139,7 @@
         <v>137</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>138</v>
@@ -1930,7 +2171,7 @@
         <v>142</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>140</v>
@@ -1962,7 +2203,7 @@
         <v>147</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>146</v>
@@ -1991,7 +2232,7 @@
         <v>152</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>150</v>
@@ -2023,7 +2264,7 @@
         <v>155</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>158</v>
@@ -2052,7 +2293,7 @@
         <v>162</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>160</v>
@@ -2084,7 +2325,7 @@
         <v>164</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>163</v>
@@ -2116,7 +2357,7 @@
         <v>170</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>168</v>
@@ -2148,7 +2389,7 @@
         <v>164</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>173</v>
@@ -2180,7 +2421,7 @@
         <v>116</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>177</v>
@@ -2208,8 +2449,11 @@
       <c r="G27" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="H27" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="I27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>181</v>
@@ -2229,19 +2473,22 @@
         <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>188</v>
+      <c r="H28" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="96">
@@ -2258,27 +2505,27 @@
         <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="64">
       <c r="A30" s="1" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -2290,7 +2537,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>108</v>
@@ -2299,21 +2546,313 @@
         <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="80">
+      <c r="A31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
         <v>233</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>231</v>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="160">
+      <c r="A32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="80">
+      <c r="A33" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="176">
+      <c r="A34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="64">
+      <c r="A35" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="80">
+      <c r="A36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="64">
+      <c r="A37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="208">
+      <c r="A38" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="64">
+      <c r="A39" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
+    <sortCondition ref="I2:I43"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J14" r:id="rId1" xr:uid="{EA4D353F-B641-0C44-B47F-89C230B617D7}"/>
     <hyperlink ref="J13" r:id="rId2" xr:uid="{F79E9414-DF85-9A41-87B0-10AAB2B6EBF2}"/>
     <hyperlink ref="J15" r:id="rId3" xr:uid="{7DB31515-FD85-6748-98AD-D76BD3FE30C3}"/>
+    <hyperlink ref="J38" r:id="rId4" xr:uid="{64181623-9443-FC45-B5F7-79AD1779BF93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4296F277-B96A-D04C-8644-4C4BAA777CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A2C1B-7C4C-5F4E-B942-6592B5A8F113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="2160" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="17680" yWindow="2100" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="305">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,6 +1193,35 @@
   </si>
   <si>
     <t>花蓮縣秀林鄉232號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-40.jpg</t>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台開心農場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣吉安鄉華中路100號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+08:30–17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洄瀾灣開心農場位於花蓮縣吉安鄉的花蓮光華樂活園區，佔地廣達45公頃，區內種滿向日葵與野薑花、荷花、馬纓丹等各種花卉，每當花季來臨，花團錦簇的景象，給人美不勝收的感受。目前不但全天開放，並且免費入園參觀。
+一走近園區，便可看見原住民圖騰的大理石雕刻，因花蓮素來以大理石著稱，因此園內隨處可見花蓮石雕藝術創作作品，在絕妙景致環繞底下感受藝術氛圍薰陶。開心農場內最引人注目的，或許是隨處可見的小動物，例如飼養中在鐵籬中的孔雀和山羌，梅花鹿雖隔著木欄，卻能讓人親近互動，更不用說在開放草地中的小山羊，連小朋友都忍不住蹲下輕撫著牠的身軀，是最具療癒效果的休閒園區。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tour-hualien.hl.gov.tw/POI/217</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1603,13 +1632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2843,6 +2872,38 @@
         <v>277</v>
       </c>
     </row>
+    <row r="40" spans="1:10" ht="176">
+      <c r="A40" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
     <sortCondition ref="I2:I43"/>
@@ -2853,6 +2914,7 @@
     <hyperlink ref="J13" r:id="rId2" xr:uid="{F79E9414-DF85-9A41-87B0-10AAB2B6EBF2}"/>
     <hyperlink ref="J15" r:id="rId3" xr:uid="{7DB31515-FD85-6748-98AD-D76BD3FE30C3}"/>
     <hyperlink ref="J38" r:id="rId4" xr:uid="{64181623-9443-FC45-B5F7-79AD1779BF93}"/>
+    <hyperlink ref="J40" r:id="rId5" xr:uid="{27CA7070-13DB-2947-9540-FEA3897FF76E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20325866-4865-E340-8DD3-C93664C4A47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15927705-8FDE-A146-BA40-0A5158F4953F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="6340" windowWidth="46100" windowHeight="21200" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="1500" yWindow="2180" windowWidth="37780" windowHeight="21200" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">工作表2!$A$1:$A$10</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="476">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2029,6 +2025,55 @@
   <si>
     <t>Introduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>fig/TGE-3302-HualienResort-51.jpg</t>
+  </si>
+  <si>
+    <t>1040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利潭遊憩區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0800-000-115. 花東縱谷國家風景區管理處</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣光復鄉大馬村內</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 小時開放, 建議白天時段前往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5-1小時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免費參觀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利潭別名忘憂湖或情人湖，占地3.2公頃，水域面積廣達18,000平方公尺，環潭步道總長約818公尺。碧綠的湖景與山脈相映成一片風景，因為拱橋的設置被當地人戲稱是山寨版的台北內湖「大湖公園」。
+&lt;br&gt;&lt;br&gt;
+青山環繞，清潭宛若山間明月，中國風的拱橋倒映在水面上，走在環潭步道上欣賞眼前美景、認識水中生物，為旅人帶走都市的喧囂，這就是隱藏在光復馬錫山下的山中秘境吉利潭，也是花蓮人口袋秘境名單之一，馬錫山下第五顆珍珠。
+&lt;br&gt;&lt;br&gt;
+抵達時，讓遊客們眼睛一亮，環潭步道全部嶄新鋪設，走起來十分輕鬆，全長818公尺。園區內原本沒有橋，現在有大橋2座(映月拱橋、三拱橋)，小橋2座(平拱橋、支坑拱橋)。擁有戲水道、生態浮島等設施，為炎炎夏日親子戲水、踏青與認識自然生態的好去處。
+&lt;br&gt;&lt;br&gt;
+吉利潭原本是日治時期遺留下來的儲木池，上游源自一處有三層的瀑布，大小潭蓄滿了清徹的山泉水，是雙色澤蟹、拉氏清溪蟹、菊池氏細鯽等原生動物的棲地，也是光復鄉阿美族的戲水秘境與祈雨聖地。潭內現在養植有高鱧、菊池氏細鯽、革條副鱊、菊池氏細鯽、鱸鰻…等多樣魚種棲息在此。
+&lt;br&gt;&lt;br&gt;
+花蓮縣光復鄉擁有豐富的觀光資源，五大打卡熱點，分別為北吉利潭、南森林園區、東拉索埃、西馬太鞍、中糖廠，如同五顆珍珠，鑲嵌在花東縱谷及中央山脈環抱的光復鄉境內。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.erv-nsa.gov.tw/zh-tw/attractions/detail/202</t>
   </si>
 </sst>
 </file>
@@ -2429,13 +2474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4323,9 +4368,50 @@
         <v>463</v>
       </c>
     </row>
+    <row r="50" spans="1:14" ht="409.6">
+      <c r="A50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C50" t="s">
+        <v>468</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
-    <sortCondition ref="B2:B49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
+    <sortCondition ref="B2:B50"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4337,71 +4423,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ADD5E3-71CA-E446-B58D-65CB68A6D5F9}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A10" xr:uid="{A5799BCA-549C-904C-98F8-DD97E2CA6F8C}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15927705-8FDE-A146-BA40-0A5158F4953F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF1A33-E14F-DC48-BD58-7CD7D6A63EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="2180" windowWidth="37780" windowHeight="21200" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="1480" yWindow="2180" windowWidth="37780" windowHeight="21200" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2477,7 +2477,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="2" spans="1:14" ht="409.6">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2560,40 +2560,38 @@
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>438</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>436</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>440</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="80">
+        <v>169</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="64">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2602,35 +2600,35 @@
         <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="409.6">
+        <v>170</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="272">
       <c r="A4" s="1" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2638,37 +2636,41 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>443</v>
+        <v>315</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>445</v>
+        <v>420</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="160">
+        <v>171</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="409.6">
       <c r="A5" s="1" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2677,1083 +2679,1084 @@
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>251</v>
+        <v>77</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>253</v>
+        <v>438</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="80">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="320">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>209</v>
+        <v>79</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>210</v>
+        <v>423</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>107</v>
+        <v>424</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="176">
+        <v>173</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="128">
       <c r="A7" s="1" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>432</v>
+        <v>316</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="409.6">
+        <v>174</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="208">
       <c r="A8" s="1" t="s">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>367</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>454</v>
+        <v>175</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="409.6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="192">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>438</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>436</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="M9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="409.6">
+        <v>176</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="96">
       <c r="A10" s="1" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>427</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>431</v>
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>429</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>315</v>
+        <v>92</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>430</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="272">
+        <v>177</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="380">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>421</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="64">
+        <v>178</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="224">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>199</v>
+        <v>414</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="M12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="320">
+        <v>179</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="256">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>405</v>
+      </c>
       <c r="M13" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="128">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="176">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="288">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="256">
       <c r="A15" s="1" t="s">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>344</v>
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="224">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="208">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>418</v>
+      <c r="K16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="192">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="335">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
+        <v>322</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="96">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="80">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="224">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="176">
       <c r="A19" s="1" t="s">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>353</v>
+        <v>131</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>451</v>
+        <v>186</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="224">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="80">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>416</v>
+        <v>136</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="380">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="80">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>408</v>
+        <v>139</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>407</v>
+        <v>138</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="64">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="192">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+        <v>333</v>
+      </c>
       <c r="M22" s="2" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="176">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="80">
       <c r="A23" s="1" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>260</v>
+        <v>190</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="96">
       <c r="A24" s="1" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>446</v>
+        <v>148</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="176">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="335">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>409</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="256">
+        <v>193</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="409.6">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>394</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="240">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="288">
-      <c r="A27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="M27" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="224">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="409.6">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C28" t="s">
-        <v>426</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>320</v>
+        <v>161</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="208">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="409.6">
       <c r="A29" s="1" t="s">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>399</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="409.6">
+        <v>197</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="80">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>373</v>
+        <v>107</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>374</v>
-      </c>
+      <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="335">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="160">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>371</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="176">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="80">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2" t="s">
-        <v>358</v>
-      </c>
+      <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="256">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="288">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -3762,30 +3765,38 @@
         <v>46</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>120</v>
+        <v>225</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>119</v>
+        <v>376</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>324</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="80">
+        <v>215</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="409.6">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -3794,578 +3805,567 @@
         <v>46</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>128</v>
+        <v>228</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>129</v>
+        <v>373</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="M34" s="2" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="80">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="80">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="96">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>139</v>
+        <v>234</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="240">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="208">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>399</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>159</v>
+        <v>401</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>84</v>
+        <v>400</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="409.6">
+        <v>219</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="64">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C38" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>395</v>
+        <v>241</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="335">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="176">
       <c r="A39" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>386</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>389</v>
+        <v>51</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>388</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="80">
+        <v>254</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="365">
       <c r="A40" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>230</v>
+        <v>61</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="2" t="s">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>229</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="409.6">
       <c r="A41" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="335">
+        <v>448</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="288">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>343</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="80">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="409.6">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>146</v>
+        <v>67</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="96">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="224">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>354</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>148</v>
+        <v>48</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+        <v>107</v>
+      </c>
       <c r="M44" s="2" t="s">
-        <v>191</v>
+        <v>451</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>147</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="409.6">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>382</v>
+        <v>74</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>107</v>
+        <v>444</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L45" s="2"/>
+        <v>445</v>
+      </c>
       <c r="M45" s="2" t="s">
-        <v>196</v>
+        <v>452</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="409.6">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="176">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>365</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>163</v>
+        <v>434</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L46" s="2"/>
+        <v>433</v>
+      </c>
       <c r="M46" s="2" t="s">
-        <v>197</v>
+        <v>453</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>162</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="409.6">
       <c r="A47" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="C47" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>349</v>
+        <v>367</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="L47" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="M47" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="192">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="335">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>291</v>
+        <v>385</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>334</v>
+        <v>67</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>333</v>
+        <v>387</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>189</v>
+        <v>455</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="365">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="409.6">
       <c r="A49" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>338</v>
+        <v>427</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>335</v>
+        <v>429</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+        <v>315</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="M49" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="409.6">
@@ -4411,15 +4411,15 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
-    <sortCondition ref="B2:B50"/>
+    <sortCondition ref="A2:A50"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N25" r:id="rId1" xr:uid="{EA4D353F-B641-0C44-B47F-89C230B617D7}"/>
-    <hyperlink ref="N26" r:id="rId2" xr:uid="{F79E9414-DF85-9A41-87B0-10AAB2B6EBF2}"/>
-    <hyperlink ref="N33" r:id="rId3" xr:uid="{7DB31515-FD85-6748-98AD-D76BD3FE30C3}"/>
-    <hyperlink ref="N29" r:id="rId4" xr:uid="{64181623-9443-FC45-B5F7-79AD1779BF93}"/>
-    <hyperlink ref="N23" r:id="rId5" xr:uid="{27CA7070-13DB-2947-9540-FEA3897FF76E}"/>
+    <hyperlink ref="N14" r:id="rId1" xr:uid="{EA4D353F-B641-0C44-B47F-89C230B617D7}"/>
+    <hyperlink ref="N13" r:id="rId2" xr:uid="{F79E9414-DF85-9A41-87B0-10AAB2B6EBF2}"/>
+    <hyperlink ref="N15" r:id="rId3" xr:uid="{7DB31515-FD85-6748-98AD-D76BD3FE30C3}"/>
+    <hyperlink ref="N37" r:id="rId4" xr:uid="{64181623-9443-FC45-B5F7-79AD1779BF93}"/>
+    <hyperlink ref="N39" r:id="rId5" xr:uid="{27CA7070-13DB-2947-9540-FEA3897FF76E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF1A33-E14F-DC48-BD58-7CD7D6A63EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB0827-1BEB-E140-85CC-69E58CF6C768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="2180" windowWidth="37780" windowHeight="21200" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="2420" yWindow="3300" windowWidth="57880" windowHeight="21200" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="526">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2074,6 +2074,206 @@
   </si>
   <si>
     <t>https://www.erv-nsa.gov.tw/zh-tw/attractions/detail/202</t>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-1030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-1040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2474,13 +2674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O40" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <pane xSplit="16" ySplit="1" topLeftCell="Q48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2496,10 +2696,11 @@
     <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="13" width="29.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="3"/>
+    <col min="14" max="14" width="47.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="37.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:15" ht="16">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2542,16 +2743,19 @@
       <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="409.6">
+      <c r="O1" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="409.6">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2560,38 +2764,43 @@
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>438</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>436</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="64">
+        <v>172</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="80">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2600,35 +2809,38 @@
         <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="272">
+        <v>214</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="409.6">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2636,41 +2848,40 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>315</v>
+        <v>443</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>421</v>
+        <v>444</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="409.6">
+        <v>452</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="160">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2679,1084 +2890,1167 @@
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>441</v>
+        <v>251</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>438</v>
+        <v>253</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>440</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="320">
+        <v>242</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="80">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>425</v>
+        <v>209</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>424</v>
+        <v>107</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="128">
+        <v>212</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="176">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>316</v>
+        <v>432</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="M7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="208">
+        <v>453</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="409.6">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>418</v>
+        <v>368</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>175</v>
+        <v>454</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="192">
+        <v>458</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="409.6">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>438</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>436</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>412</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="96">
+        <v>169</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="409.6">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>280</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>93</v>
+        <v>429</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>315</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+        <v>430</v>
+      </c>
       <c r="M10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="380">
+        <v>456</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="272">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="M11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="224">
+        <v>171</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="64">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>416</v>
+        <v>198</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>414</v>
+        <v>199</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>415</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="256">
+        <v>170</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="320">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>423</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>405</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="176">
+        <v>78</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="128">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>115</v>
+        <v>316</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>409</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="256">
+        <v>165</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="288">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>324</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="224">
+        <v>449</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="208">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="335">
+        <v>109</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="192">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>371</v>
+        <v>411</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="80">
+        <v>87</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="96">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>325</v>
+        <v>92</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="176">
+        <v>91</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="224">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>359</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>186</v>
+        <v>451</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="80">
+        <v>461</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="224">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>326</v>
+        <v>97</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="80">
+        <v>96</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="380">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>139</v>
+        <v>168</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>138</v>
+        <v>407</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="192">
+        <v>166</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="64">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>334</v>
+        <v>241</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>333</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="2" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="80">
+        <v>238</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="176">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="96">
+        <v>254</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="96">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>148</v>
+        <v>234</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="335">
+        <v>235</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="176">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="409.6">
+        <v>181</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="256">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
-        <v>394</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>328</v>
+        <v>84</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+        <v>405</v>
+      </c>
       <c r="M26" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="240">
+        <v>180</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="288">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>159</v>
+        <v>376</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
-        <v>392</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="409.6">
+        <v>224</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="224">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>426</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>382</v>
+        <v>122</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L28" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="M28" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="409.6">
+        <v>121</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="208">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>399</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L29" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="M29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="80">
+        <v>219</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="409.6">
       <c r="A30" s="1" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>209</v>
+        <v>228</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>107</v>
+        <v>373</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="M30" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="160">
+        <v>226</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="335">
       <c r="A31" s="1" t="s">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>251</v>
+        <v>126</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+        <v>371</v>
+      </c>
       <c r="M31" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="80">
+        <v>125</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="176">
       <c r="A32" s="1" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>221</v>
+        <v>359</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="M32" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="288">
+        <v>132</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="256">
       <c r="A33" s="1" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -3765,38 +4059,33 @@
         <v>46</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>376</v>
+        <v>119</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+        <v>324</v>
+      </c>
       <c r="M33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="409.6">
+        <v>182</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="80">
       <c r="A34" s="1" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -3805,570 +4094,629 @@
         <v>46</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>375</v>
+        <v>128</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2" t="s">
-        <v>374</v>
-      </c>
+      <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="80">
+        <v>127</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="80">
       <c r="A35" s="1" t="s">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+        <v>326</v>
+      </c>
       <c r="M35" s="2" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="96">
+        <v>134</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="80">
       <c r="A36" s="1" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="208">
+        <v>140</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="240">
       <c r="A37" s="1" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>401</v>
+        <v>159</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>400</v>
+        <v>84</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="64">
+        <v>195</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="409.6">
       <c r="A38" s="1" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>241</v>
+        <v>155</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+        <v>328</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="176">
+        <v>154</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="335">
       <c r="A39" s="1" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+        <v>387</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="M39" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="365">
+        <v>455</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="80">
       <c r="A40" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C40" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>336</v>
+        <v>67</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+        <v>329</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>447</v>
+        <v>217</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="409.6">
+        <v>229</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="409.6">
       <c r="A41" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="288">
+        <v>450</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="335">
       <c r="A42" s="1" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>341</v>
+        <v>153</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="409.6">
+        <v>193</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="80">
       <c r="A43" s="1" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="C43" t="s">
-        <v>347</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>348</v>
+        <v>63</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>345</v>
+        <v>145</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="224">
+        <v>190</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="96">
       <c r="A44" s="1" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="C44" t="s">
-        <v>354</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>355</v>
+        <v>63</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>353</v>
+        <v>150</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>451</v>
+        <v>191</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="409.6">
+        <v>147</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="409.6">
       <c r="A45" s="1" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>443</v>
+        <v>161</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>444</v>
+        <v>107</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="176">
+        <v>242</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="409.6">
       <c r="A46" s="1" t="s">
-        <v>268</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="C46" t="s">
-        <v>365</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>434</v>
+        <v>163</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>453</v>
+        <v>197</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="409.6">
+        <v>162</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="409.6">
       <c r="A47" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>369</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="335">
+        <v>462</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="192">
       <c r="A48" s="1" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>385</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>389</v>
+        <v>61</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>388</v>
+        <v>142</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>455</v>
+        <v>189</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="409.6">
+        <v>141</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="365">
       <c r="A49" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="C49" t="s">
-        <v>428</v>
+        <v>310</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>431</v>
+        <v>336</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>429</v>
+        <v>335</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>430</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="409.6">
+        <v>447</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="409.6">
       <c r="A50" s="1" t="s">
         <v>465</v>
       </c>
@@ -4408,18 +4756,71 @@
       <c r="N50" s="3" t="s">
         <v>475</v>
       </c>
+      <c r="O50" s="4" t="s">
+        <v>525</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
-    <sortCondition ref="A2:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O50">
+    <sortCondition ref="B2:B50"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N14" r:id="rId1" xr:uid="{EA4D353F-B641-0C44-B47F-89C230B617D7}"/>
-    <hyperlink ref="N13" r:id="rId2" xr:uid="{F79E9414-DF85-9A41-87B0-10AAB2B6EBF2}"/>
-    <hyperlink ref="N15" r:id="rId3" xr:uid="{7DB31515-FD85-6748-98AD-D76BD3FE30C3}"/>
-    <hyperlink ref="N37" r:id="rId4" xr:uid="{64181623-9443-FC45-B5F7-79AD1779BF93}"/>
-    <hyperlink ref="N39" r:id="rId5" xr:uid="{27CA7070-13DB-2947-9540-FEA3897FF76E}"/>
+    <hyperlink ref="N25" r:id="rId1" xr:uid="{EA4D353F-B641-0C44-B47F-89C230B617D7}"/>
+    <hyperlink ref="N26" r:id="rId2" xr:uid="{F79E9414-DF85-9A41-87B0-10AAB2B6EBF2}"/>
+    <hyperlink ref="N33" r:id="rId3" xr:uid="{7DB31515-FD85-6748-98AD-D76BD3FE30C3}"/>
+    <hyperlink ref="N29" r:id="rId4" xr:uid="{64181623-9443-FC45-B5F7-79AD1779BF93}"/>
+    <hyperlink ref="N23" r:id="rId5" xr:uid="{27CA7070-13DB-2947-9540-FEA3897FF76E}"/>
+    <hyperlink ref="O9" r:id="rId6" location="Article-120" xr:uid="{9AE446F4-FA7C-A349-B3A1-569137828DC9}"/>
+    <hyperlink ref="O3:O50" r:id="rId7" location="Article-" display="https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-" xr:uid="{1CD49CE0-AB9F-5C4D-A49E-CF688A7C0B62}"/>
+    <hyperlink ref="O12" r:id="rId8" location="Article-150" xr:uid="{73CF6A63-8D0D-3747-8B00-EDE703EB5D99}"/>
+    <hyperlink ref="O11" r:id="rId9" location="Article-140" xr:uid="{FE675FA9-0C74-E64E-BDD4-E94F9905E55D}"/>
+    <hyperlink ref="O2" r:id="rId10" location="Article-110" xr:uid="{A559C08A-4869-7F47-B24E-B5FF13138050}"/>
+    <hyperlink ref="O3" r:id="rId11" location="Article-111" xr:uid="{2B2003C6-6679-3A40-BD19-ACA0E67CF1CA}"/>
+    <hyperlink ref="O4" r:id="rId12" location="Article-112" xr:uid="{26F23574-2390-9F43-AC86-DA4AC805269D}"/>
+    <hyperlink ref="O5" r:id="rId13" location="Article-113" xr:uid="{0BD5D326-F34F-0E4D-AD59-2855742C1400}"/>
+    <hyperlink ref="O6" r:id="rId14" location="Article-114" xr:uid="{0A6BDCD7-EE53-044E-B237-DEB603C7CA42}"/>
+    <hyperlink ref="O7" r:id="rId15" location="Article-115" xr:uid="{6BDB3B04-D2B0-434F-8A72-F9DBC1EC8FC3}"/>
+    <hyperlink ref="O8" r:id="rId16" location="Article-116" xr:uid="{FEAC061B-E408-4743-842F-960C943D8E12}"/>
+    <hyperlink ref="O10" r:id="rId17" location="Article-130" xr:uid="{1AD3D81F-CFA9-2B4D-B233-E1E51C338BAB}"/>
+    <hyperlink ref="O13" r:id="rId18" location="Article-210" xr:uid="{0DB93866-ECEB-A846-ACA7-1C7DD86DEB18}"/>
+    <hyperlink ref="O14" r:id="rId19" location="Article-220" xr:uid="{2950003B-ED85-5F46-B268-4921BB0A31AB}"/>
+    <hyperlink ref="O15" r:id="rId20" location="Article-230" xr:uid="{1DEF79EB-BC29-234C-A22F-E8B9F9625493}"/>
+    <hyperlink ref="O16" r:id="rId21" location="Article-310" xr:uid="{5FAE8D99-DE05-5E4E-AFA2-B7ED8FDDD4FE}"/>
+    <hyperlink ref="O17" r:id="rId22" location="Article-320" xr:uid="{C890B9BD-D64C-6F41-BC96-75F78B6ED5B0}"/>
+    <hyperlink ref="O18" r:id="rId23" location="Article-330" xr:uid="{CFA7A02E-C667-9548-BD8F-99BFFAD74781}"/>
+    <hyperlink ref="O19" r:id="rId24" location="Article-340" xr:uid="{BE17D728-54E9-854B-812F-D10740EB66EB}"/>
+    <hyperlink ref="O20" r:id="rId25" location="Article-410" xr:uid="{FF2E2234-EE4F-CA42-85C8-8F915101770E}"/>
+    <hyperlink ref="O21" r:id="rId26" location="Article-420" xr:uid="{F068B3E4-D107-8649-879A-460504D92466}"/>
+    <hyperlink ref="O22" r:id="rId27" location="Article-421" xr:uid="{A359C04B-CCAF-8C4B-91F3-785826ED7897}"/>
+    <hyperlink ref="O23" r:id="rId28" location="Article-430" xr:uid="{C560C741-77C9-7E4F-BC50-012E3F44223F}"/>
+    <hyperlink ref="O24" r:id="rId29" location="Article-440" xr:uid="{81EB6D64-B3A8-214A-8240-F59141BCA5AC}"/>
+    <hyperlink ref="O25" r:id="rId30" location="Article-510" xr:uid="{B882A099-A7D4-0541-A032-C254F99F796F}"/>
+    <hyperlink ref="O26" r:id="rId31" location="Article-520" xr:uid="{1C00CF01-B831-0A46-91FD-79699DFD1BF4}"/>
+    <hyperlink ref="O27" r:id="rId32" location="Article-530" xr:uid="{04948614-0267-7840-9E7A-001C6A61FDFC}"/>
+    <hyperlink ref="O28" r:id="rId33" location="Article-540" xr:uid="{CE1CBD05-A790-D64E-83F7-88FDC8BD2E42}"/>
+    <hyperlink ref="O29" r:id="rId34" location="Article-541" xr:uid="{3AF975E8-21C2-4B44-9F42-333CE2A5D734}"/>
+    <hyperlink ref="O30" r:id="rId35" location="Article-550" xr:uid="{CCF39215-2CCA-1E40-96AB-06280F98ED4F}"/>
+    <hyperlink ref="O31" r:id="rId36" location="Article-560" xr:uid="{B83E9C27-3274-544E-B27D-19FC818ECC74}"/>
+    <hyperlink ref="O32" r:id="rId37" location="Article-570" xr:uid="{307D7084-BB8A-5D49-B9E8-3106EC2793BC}"/>
+    <hyperlink ref="O33" r:id="rId38" location="Article-580" xr:uid="{061A4194-9C15-4A44-8225-82E9591C93EA}"/>
+    <hyperlink ref="O34" r:id="rId39" location="Article-590" xr:uid="{EE727A8E-BE65-6241-BB89-F87C6503A488}"/>
+    <hyperlink ref="O35" r:id="rId40" location="Article-591" xr:uid="{15752955-FDC3-C34C-815D-AE0960672B6D}"/>
+    <hyperlink ref="O36" r:id="rId41" location="Article-592" xr:uid="{52B1F9CB-26AA-DE42-A1DC-21CC6CFB7CAF}"/>
+    <hyperlink ref="O37" r:id="rId42" location="Article-610" xr:uid="{A9DF1962-8744-1E41-B552-8012CCDF00B3}"/>
+    <hyperlink ref="O38" r:id="rId43" location="Article-620" xr:uid="{8B0D18FC-0598-9F4F-992E-C9D6F8B3BFBF}"/>
+    <hyperlink ref="O39" r:id="rId44" location="Article-630" xr:uid="{1183D95F-255B-4348-815D-33DFD52776A9}"/>
+    <hyperlink ref="O40" r:id="rId45" location="Article-640" xr:uid="{7A6A02DF-92E6-0F45-9BE1-EA2D4D9F17CE}"/>
+    <hyperlink ref="O41" r:id="rId46" location="Article-650" xr:uid="{5025A1C6-2EEB-7F4A-9A64-576A271C1CBE}"/>
+    <hyperlink ref="O42" r:id="rId47" location="Article-710" xr:uid="{A92D424A-C409-CA4B-9193-A0813513CBF9}"/>
+    <hyperlink ref="O43" r:id="rId48" location="Article-720" xr:uid="{BB4B3122-2356-6C42-91A8-B9D17CDFFF98}"/>
+    <hyperlink ref="O44" r:id="rId49" location="Article-730" xr:uid="{4AA1706C-7726-4246-91D5-F5AD22819E40}"/>
+    <hyperlink ref="O45" r:id="rId50" location="Article-810" xr:uid="{A01C072C-532A-7846-8B59-ED581578F68C}"/>
+    <hyperlink ref="O46" r:id="rId51" location="Article-910" xr:uid="{8A859273-C836-054A-996F-D8D84B79BB61}"/>
+    <hyperlink ref="O47" r:id="rId52" location="Article-1010" xr:uid="{F875C1F9-6B7E-6E41-B68D-E57DB7EBB590}"/>
+    <hyperlink ref="O48" r:id="rId53" location="Article-1020" xr:uid="{0A7C281D-B974-BA49-8080-F85BEDCE7CB3}"/>
+    <hyperlink ref="O49" r:id="rId54" location="Article-1030" xr:uid="{C8720521-A4CB-E84A-BFE0-AA7E8BDB7F60}"/>
+    <hyperlink ref="O50" r:id="rId55" location="Article-1040" xr:uid="{93096422-D161-664E-A0D7-D7DA92566130}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB0827-1BEB-E140-85CC-69E58CF6C768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D3C017-FE04-D446-9C60-EF0C46A6BBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="3300" windowWidth="57880" windowHeight="21200" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="8060" yWindow="1580" windowWidth="34960" windowHeight="22580" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="540">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,10 +297,6 @@
   </si>
   <si>
     <t>富里鄉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮文創園區</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,10 +381,6 @@
     <t>https://www.taiwan.net.tw/m1.aspx?sNo=0001124&amp;id=A12-00295</t>
   </si>
   <si>
-    <t>03-831-3777#203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花蓮縣花蓮市中華路144號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +412,6 @@
   </si>
   <si>
     <t>花蓮縣秀林鄉崇德村下台地立霧溪旁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0963-708807</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,11 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-0977-690913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.taiwan.net.tw/m1.aspx?sNo=0001124&amp;id=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>08:30 – 19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花蓮縣壽豐鄉共和村魚池路45號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,10 +536,6 @@
   </si>
   <si>
     <t>https://hayaku.com.tw/</t>
-  </si>
-  <si>
-    <t>花蓮縣壽豐鄉鹽寮村大坑51-5號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海崖谷 HAYAKU
@@ -574,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11:00－17:00（週四公休）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mr. Sam山姆先生咖啡館座落台9線226.5K，本來這塊空地上有兩間老平房，經過老闆巧思規劃，將這兩間老屋打造成童話故事裡的奇幻屋，因為造型特殊又在公路邊，去年施工時就引起熱烈討論，吸引許多網紅、遊客專程來打卡。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,10 +787,6 @@
   </si>
   <si>
     <t>崇德瑩農場有著紐西蘭牧場的感覺，但是又有美麗的山景，寬闊的海景和夢幻海洋泡泡球屋，還有很多拍照的造景，及很多活動可以參加。來崇德瑩農場玩上大半天也不是問題。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:00 - 06:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -942,10 +909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03-8230751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>楓林步道沿途共設置6座觀景台，海拔約300至400公尺，單程步行時間約為2小時，步道坡度緩和，行走不費力，可以騎單車、機車，甚至開車任選一段步行，是一處適合親子同樂踏青遊春郊的好去處。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1325,10 +1288,6 @@
   </si>
   <si>
     <t>03-887-5588</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-870-5881</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1968,10 +1927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花蓮吉安楓林步道，全長2.8公里除了是健行好去處，可以俯瞰整花蓮平原及海岸山脈北側的美麗風景。蜿蜒而上的山徑兩旁有所成列的楓樹步道 ，是遊客休閒踏青的熱門景點 。步道轉彎處都有設置觀景台好讓遊客休息欣賞美景，來到四號觀景台，阿煜非常詳盡的觧説有名的建築地標。讓大家更進一步了解花蓮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/TGE-3302-HualienResort-41.jpg</t>
   </si>
   <si>
@@ -2273,6 +2228,182 @@
   </si>
   <si>
     <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-350-ResortSummary.html#Article-1040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0863-708-807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+0977-690-913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農塲訂房時間：08:30-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇德瑩農塲於2020元旦開幕，擁有山景、海景與廣闊的牧場草原，可以無憂無慮的吹著海風散步，有些造型裝置可以拍照，參觀動物區，可以餵馬、豬、羊、烏龜、孔雀等小動物，或是租台沙灘車奔馳，遊客說有像出國來到紐西蘭蘭牧場的感覺。此地被封為台版的紐西蘭。農場為「開放式參觀」不收費用。
+&lt;br&gt;&lt;br&gt;
+崇德瑩農場位在立霧溪出海口，除了免門票自由參觀拍照外，農場本身也是一個靠海的露營車住宿區。 提供露營車、露營地、獨木舟、飛行傘、沙灘車等可供遊玩。
+&lt;br&gt;&lt;br&gt;
+園區內裡的二樓景觀餐廳，有露天座位，可遠眺無敵海景，可以提供風味餐、下午茶、及咖啡等餐飲。有玻璃球及網美盪鞦韆可拍。一樓有點餐區及販賣部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮文化創意產業園區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-831-2111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮文化創意產業園區 於2011年對外開放，並被文化部列為古蹟。a-zone是位在花蓮市中心。前身是舊酒廠，占地3.3公頃的歷史聚落，涵蓋了26棟倉庫建築。內部空間改建，提供文藝展覽、藝術演出、各色餐飲、文創商品、講座等服務。與台北的華山、松山文創區及北海道的小樽市有點類似，盡是濃濃的懷舊風情。
+&lt;br&gt;&lt;br&gt;
+門口擺放的市集之外；內部設有生活選品館，以在地品牌特色的產品為主，多為文創商品。
+&lt;br&gt;&lt;br&gt;
+花蓮文化創意產業園區 a-zone 讓人的感覺很舒服，可以走走、逛逛、喝杯咖啡、或看個展覽、做個DIY，分享大家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（洄瀾灣開心農場）&lt;br&gt;
+台開心農場位在花蓮縣吉安鄉，佔地廣達45公頃。設有「農場動物區」、「馬兒奔馳區」、「生態池與花園區」，日前花園區種植了8萬株向日葵，打造數公頃的黃金花海，吸引許多遊客入園賞花，在美麗的花海之中，留下最美的畫面與回憶。
+&lt;br&gt;&lt;br&gt;
+農場動物區，農場種植許多有機農作物，還有可愛動物區、生態魚池。這裡飼養了梅花鹿、孔雀、公雞，生態池則有綠頭鴨與天鵝悠游其中，開放式空間常看到小鴨隨處散步，小朋友跟在小鴨的屁股後走，模樣景象十分有趣超級可愛！
+&lt;br&gt;
+來到馬場區，可以近距離看到馬，若有興趣可以事先預約體驗騎馬。農場裡也有大片草地，可以讓小朋友盡情奔跑。
+&lt;br&gt;&lt;br&gt;
+參觀完迴來到免門票入園參觀，近距離接觸梅花鹿、孔雀、紅鶴、馬等小動物，大片生態綠地景致優美，令人忘卻塵囂還有大批的馬群在大草地奔跑，自由自在不受拘束。
+&lt;br&gt;&lt;br&gt;
+洄瀾灣開心農場（台開心農場）園區佔地45頃，蘊藏豐富的生態資源，一入園不一會兒便看到鳥禽區，孔雀、山羌和雞首先為大家帶來驚喜，這裡的孔雀顯然心情非常愉悅，讓我們正面也看、後面也看，連難得開屏的景象都看到了，讓我們驚喜連連！沿著碎石子路往前走，碧綠草地、生態湖映入眼簾，還有綠頭鴨、天鵝、紅鶴群聚，充滿生命力的畫面讓人覺得好療癒啊！帶上球具、風箏，鋪一張野餐墊野餐，在這兒享受慢活時光愜意而自在！
+&lt;br&gt;&lt;br&gt;
+洄瀾灣盡覽太平洋的自然景色，園區裡的「夢想石廣場」面向蔚藍浩瀚的太平洋，同時也是觀賞日出、日落的絕佳景點。
+&lt;br&gt;
+園區也有規畫東海岸最美的自行車道，可連接鯉魚潭，在海天之間迎風騎著自行車，令人醉心於大自然的美！花蓮有名的原民文化也呈現在洄瀾灣開心農場（台開心農場），園內到處可見花蓮原住民圖騰的石雕藝術作品，來園區走走，也可以感受到藝術薰陶，很有朱銘美術館的FU。
+農場遮蔽處較少，炎夏時節建議下午前來避免日晒。農場免費讓遊客參觀，但這裡沒有提供廁所，可至鄰近的貨櫃星巴克使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮吉安楓林步道，全長2.8公里除了是健行好去處，可以俯瞰整花蓮平原及海岸山脈北側的美麗風景。蜿蜒而上的山徑兩旁有所成列的楓樹步道 ，是遊客休閒踏青的熱門景點 。步道轉彎處都有設置觀景台好讓遊客休息欣賞美景，來到四號觀景台，阿煜非常詳盡的觧説有名的建築地標。讓大家更進一步了解花蓮。
+&lt;br&gt;&lt;br&gt;
+楓林步道，居高臨下，眺望太平洋欣賞洄瀾夜景。楓林步道位於花蓮吉安鄉，從花蓮市區大約半小時的車程，從福興路底的產業道路蜿蜒而上，全長2.8公里公里，沿途有設置觀景平台以及涼亭可以休憩賞景，但還可居高臨下欣遠眺太平洋，將吉安鄉的平原美景盡收眼底。
+&lt;br&gt;&lt;br&gt;
+楓林步道海拔約300~400公尺，可以步行、騎車、開車前往，沿途有設置九座觀景平台，天氣好時可以將太平洋、美崙山、花東縱谷、七星潭、花蓮市景盡收眼底，早晨可以欣賞日出，晚上可以欣賞夜景。
+&lt;br&gt;&lt;br&gt;
+白雲楓林步道，可以用行走，可以騎單車、騎機車，甚至開車也可，白雲步道銜接楓林步道，形成一個ㄇ字形的產業小徑，沿途有好幾個涼亭，可讓遊客用不同角度欣賞熟悉的這片大地，眼前便是海岸山脈、吉安壽豐花蓮市的阡陌田園視野，像不像搭乘飛機起飛時的視野呢，也像極了看見台灣紀錄片開著直昇機飛翔天空的快感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日-星期一 08:30 – 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免費參觀&lt;br&gt;
+1.摸蜆體驗每人120元，5歲以下不收費，僅需付陪同大人的費用&lt;br&gt;
+2.蜆殼DIY每人150元，需於3天事先預約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5-1.5小時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位在壽豐的立川漁場，利用天然湧泉養殖體型飽滿、味道鮮美的黃金蜆，並設立了文化生態館、蜆之館、體驗池、餐廳等，不僅能夠讓人認識黃金蜆的一生、養殖的過程之外，還能親自下水體驗「摸蜊仔兼洗褲」的樂趣，餵食養殖的魚群，是一個非常受歡迎的親子同樂的景點。
+&lt;br&gt;&lt;br&gt;
+壽豐鄉擁有清澈乾淨的水質，源源不絕的湧泉，加上無汙染的環境，不但讓立川漁場孕育出優質的黃金蜆，也成功研發出的蜆錠、蜆精等多項產品，而用湧泉養殖的貴妃魚、活力鯛等水產，深受眾人喜愛，吃起來肉質鮮嫩細緻，毫無淡水魚的土味與腥味，是來這裡必吃、必買的美食。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣壽豐鄉鹽寮村大坑51-5號  (遠雄海洋公園旁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元(可全額折抵消費)，  國小以下免收費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00–17:30   (每個月的第二週星期三為休園日)&lt;br&gt;
+晚餐時間：18:00-21:00(預約制) &lt;br&gt;
+露營區: check-in 16:00   chect-out 11:00前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海崖谷分成三區域，露營區、露天看海平台、小草地。豪華露營又稱免裝備露營，結合時尚住宿及野地露營，海崖谷擁有一望無際的海景，可以聽著海聲入夢鄉、一起床看到的就是蔚藍大海，
+值得體驗在海邊露營，來到花東才有機會的海邊露營。有6種風格的露營帳篷，分別為北歐風、森林風、唐風、禪風、狩獵風、南洋風等，
+都有二人或四人選擇，裡面設備有冷暖氣及獨立衛浴設備，只要帶著簡單行李就能入住。
+&lt;br&gt;&lt;br&gt;
+看海秘境「海崖谷」，擁有著海景第一排絕佳無敵視野，窩在花朵鞦韆裡，面對湛藍大海與晴空，用最舒服的方式，眺望著花蓮美麗海岸線，
+園區充滿南洋風，彷彿一秒置身於峇里島，
+還有小朋友會愛的小沙坑與戲水池。適合親子遊的好地方。
+&lt;br&gt;&lt;br&gt;
+藍天、白雲、遼闊的草地，鬱鬱蔥蔥的森林，聆聽鳥語蟲鳴，在草地上自由奔跑、滑草、戲水、玩沙，體驗戶外的樂趣。
+&lt;br&gt;&lt;br&gt;
+海景餐廳，擁抱一望無際的海岸線，自在的享受美食，以及多樣打卡設施 愛心的、圓型的，多種造型椅透過去就是美麗的大海，也是網美必拍的景色！讓你盡情的拍照。
+&lt;br&gt;&lt;br&gt;
+汽車須停在外面大馬路兩側，店家專屬停車場位置，僅保留給住宿露營區者使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00－17:00（週四公休）&lt;br&gt;
+暑假期間：（7/1-8/31）天天開放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr. Sam山姆先生咖啡館座落台9線226.5K，原來在空地上有三間老平房，經過老闆巧思規劃，將這兩間老屋打造成童話故事裡的奇幻屋，因為造型特殊又在公路邊，施工時就引起熱烈討論，吸引許多網紅、遊客專程來打卡。
+&lt;br&gt;&lt;br&gt;
+咖啡館的室外面積很大，從台9線就能見到大大的Mr. Sam紅字招牌，咖啡館後方是一個種植落羽松的造景池塘以及停車場，戶外區也設置有座椅
+&lt;br&gt;
+室內空間不大，布置卻非常大氣，包含座椅、沙發都是老闆收藏的古董家具，搭配國外原裝進口的造型彩繪玻璃窗，讓人融入歐洲童話故事情境。
+&lt;br&gt;&lt;br&gt;
+整間都貼滿大理石壁紙的展覽空間讓咖啡館呈現藝術氣質，牆上的畫作是台灣插畫家吳健豐的｢神奇樹屋｣系列封面原作展，也是｢Mr. Sam｣咖啡館首波展覽。來到這裡可別只顧著拍照，坐下來喝杯咖啡、看看畫作更悠閒舒適。
+&lt;br&gt;&lt;br&gt;
+店內提供咖啡、鮮果氣泡飲，還有舞鶴蜜香紅茶、薰衣草冬瓜茶等手工瓶裝飲料，不想等現做飲料也可以直接購買。
+&lt;br&gt;
+Mr. Sam山姆先生咖啡館的園區種植許多落羽松，而且擁有一片湖泊，顯得非常詩情畫意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日-星期一 08:00 – 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞穗牧場是一座開放式的休閒牧場，以放牧乳牛、生產乳製品而聞名，位於花蓮縣瑞穗鄉舞鶴村，為舞鶴風景區的一部分。依靠中央山脈的瑞穗牧場，以純淨的水質種植出鮮美的牧草，讓園區中的乳牛生產優質的鮮奶，製造出各式各樣的鮮奶製品。鮮奶饅頭、乳酪蛋糕、牛軋糖等是來瑞穗牧場必吃的美食。
+&lt;br&gt;&lt;br&gt;
+瑞穗牧場是熱門親子旅遊景點，園區雖然不大，但有乳牛、鴕鳥，還有最新鮮香濃的鮮奶以及好吃的鮮奶饅頭，適合全家大小一起來。
+&lt;br&gt;&lt;br&gt;
+瑞穗牧場，連續三年榮獲全省酪農產銷班評比第一名，好山好水所飼養的牛隻，鮮奶真的無比濃醇呢。據說每頭乳牛，平均每日能產約20公斤的乳量，牛乳交由統一企業加工，成為了知名品牌「統一瑞穗鮮乳」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮好山好水，是人們嚮往的樂土，孕育出優良水質、土壤、作物，其中北緯23.5度橫跨瑞穗鄉境內，形成得天獨厚的生態環境，豐饒也成了這裡的代名詞。吉蒸牧場便是位於北回歸線境內，在此繁衍生根三十多年歷史。吉蒸牧場坐看秀姑巒溪蜿蜒，周邊生態多樣豐富，其水系區域內還有緊鄰的紅葉溪、富源溪等支流流過，亦成為了農業與生產等灌溉山泉水。海岸山脈與聳峻中央山脈成為此處最鮮明風景，被花東縱谷的山勢環抱著，金黃稻穗收成的作物也展現了當地自然共好、友善生態的簡樸。
+&lt;br&gt;&lt;br&gt;
+吉蒸牧場是花蓮縣唯一無毒農業示範的酪農戶，環境決定了鮮乳的品質好壞，只有真正把環境和消費者健康放在第一的產戶才能加入。2003年，吉蒸牧場投入了綠色革命、無毒家園行列，「無毒農業」產品通過嚴格檢測，證明無農藥殘留與水土污染，嚴謹度並不亞於有機認證，花蓮縣採用生產履歷制度，至今所驗證產品都安全無虞。
+&lt;br&gt;&lt;br&gt;
+台灣東部的秀姑巒溪旁，花東縱谷與中央山脈環抱著寬闊的吉蒸牧。在瑞穗共有兩間牧場，一處是廣為人知的瑞穗牧場，另一處便是位在秀姑巒溪泛舟遊客中心旁的吉蒸牧場，園區內擁有販售部、餐廳、可愛動物園區，讓旅人享受一份清淨，靜靜遠眺秀姑巒溪，或是在溪畔旁漫步。
+&lt;br&gt;&lt;br&gt;
+牧塲內有乳牛、羊咩咩、鴕鳥、孔雀…等多種可愛動物外，還可以品嚐65度C秀姑巒鮮乳、吉蒸鮮奶酪和鮮奶冰淇淋，鮮奶饅頭、優格、牛奶糖等，適合親子同遊。
+&lt;br&gt;&lt;br&gt;
+「吉蒸牧場」位於花蓮縣瑞穗鄉，牧場名稱是由吉祥如意，蒸蒸日上而來，故取名吉蒸，同時也是瑞穗蠻知名的休閒牧場。
+&lt;br&gt;&lt;br&gt;
+牧場每一滴自然純淨鮮乳嚴謹把關；每日產地新鮮急送，為100％香濃口感與營養健康。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-870-4125#200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰品販賣部：08:00 - 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在日治時期所成立的花蓮觀光糖廠，也稱為光復糖廠，是許多單車族休息的據點，糖廠內販售各式各樣口味的冰品，香甜綿密的冰淇淋、沁涼微甜的冰棒，讓人吃下一口後大呼滿足。除了吃冰之外，還能體驗DIY手作課程、騎鐵馬遊園區，並且提供日式宿舍給遊客住宿，是來花蓮不可錯過的觀光糖廠。來到花蓮觀光糖廠，一定要品嚐幾支古早味枝仔冰，花生、芋頭口味特別受歡迎，還有臺灣在地的米糕口味也別錯過喔！
+&lt;br&gt;&lt;br&gt;
+漣漪園涼亭有個大池塘，兩旁有著商店街圍繞，走在小橋、涼亭造景，池塘裡還有鯉魚悠遊其中，遊客可買魚飼料，在池邊餵魚。
+&lt;br&gt;&lt;br&gt;
+光復糖廠除了吃冰、好逛以外，也有提供遊客住宿，一排排整齊的日式宿舍，是國內碩果僅存的日式木構造建築群。各種房型特色木屋給人不一樣的住宿體驗，下次有機會到花蓮真想來住看看，感受一下日式木屋的風華與典雅。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2680,7 +2811,7 @@
       <pane xSplit="16" ySplit="1" topLeftCell="Q48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O51" sqref="O51"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2705,13 +2836,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -2720,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -2732,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -2744,7 +2875,7 @@
         <v>6</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.6">
@@ -2752,7 +2883,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -2764,43 +2895,43 @@
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="80">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2809,38 +2940,38 @@
         <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="409.6">
       <c r="A4" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2849,39 +2980,39 @@
         <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="160">
       <c r="A5" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2890,38 +3021,38 @@
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="80">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2930,38 +3061,38 @@
         <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="176">
       <c r="A7" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2970,39 +3101,39 @@
         <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="409.6">
       <c r="A8" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -3011,28 +3142,28 @@
         <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="409.6">
@@ -3040,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -3052,41 +3183,41 @@
         <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="409.6">
       <c r="A10" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3095,22 +3226,22 @@
         <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="272">
@@ -3118,7 +3249,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -3130,40 +3261,40 @@
         <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="64">
+    <row r="12" spans="1:15" ht="240">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -3175,27 +3306,32 @@
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>102</v>
+        <v>515</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>199</v>
+        <v>517</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="M12" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="320">
@@ -3203,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -3215,30 +3351,30 @@
         <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="128">
@@ -3246,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -3258,41 +3394,41 @@
         <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="288">
       <c r="A15" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -3301,21 +3437,21 @@
         <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="208">
@@ -3323,7 +3459,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -3335,28 +3471,28 @@
         <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>112</v>
+        <v>516</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="192">
@@ -3364,7 +3500,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -3376,43 +3512,43 @@
         <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="96">
+    <row r="18" spans="1:15" ht="208">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>519</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -3421,38 +3557,43 @@
         <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="M18" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="224">
       <c r="A19" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -3461,22 +3602,22 @@
         <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="224">
@@ -3484,7 +3625,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
@@ -3496,32 +3637,32 @@
         <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="380">
@@ -3529,7 +3670,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
@@ -3541,41 +3682,41 @@
         <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="64">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -3584,38 +3725,38 @@
         <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176">
+    <row r="23" spans="1:15" ht="409.6">
       <c r="A23" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -3624,38 +3765,41 @@
         <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="96">
+    <row r="24" spans="1:15" ht="380">
       <c r="A24" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -3664,30 +3808,32 @@
         <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>446</v>
+        <v>523</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="M24" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="176">
@@ -3695,7 +3841,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
@@ -3707,32 +3853,32 @@
         <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="256">
@@ -3740,7 +3886,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
@@ -3752,39 +3898,39 @@
         <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="288">
       <c r="A27" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -3793,30 +3939,30 @@
         <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="224">
@@ -3824,10 +3970,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C28" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -3836,45 +3982,45 @@
         <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="208">
       <c r="A29" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C29" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -3883,43 +4029,43 @@
         <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="409.6">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -3928,32 +4074,32 @@
         <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="335">
@@ -3961,7 +4107,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
@@ -3973,28 +4119,28 @@
         <v>46</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="176">
@@ -4002,7 +4148,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
@@ -4014,32 +4160,32 @@
         <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="256">
@@ -4047,7 +4193,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
         <v>54</v>
@@ -4059,30 +4205,30 @@
         <v>46</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="80">
+    <row r="34" spans="1:15" ht="208">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
@@ -4094,35 +4240,42 @@
         <v>46</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="M34" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80">
+    <row r="35" spans="1:15" ht="409.6">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C35" t="s">
         <v>59</v>
@@ -4134,30 +4287,39 @@
         <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>135</v>
+        <v>528</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="80">
+    <row r="36" spans="1:15" ht="380">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C36" t="s">
         <v>60</v>
@@ -4169,27 +4331,30 @@
         <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>138</v>
+        <v>532</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="240">
@@ -4197,7 +4362,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -4209,32 +4374,32 @@
         <v>67</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="409.6">
@@ -4242,10 +4407,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C38" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -4254,41 +4419,41 @@
         <v>67</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="335">
       <c r="A39" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C39" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -4297,33 +4462,33 @@
         <v>67</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="80">
       <c r="A40" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -4332,38 +4497,38 @@
         <v>67</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="409.6">
       <c r="A41" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -4372,21 +4537,21 @@
         <v>67</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="335">
@@ -4394,7 +4559,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
@@ -4406,38 +4571,38 @@
         <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="80">
+    <row r="43" spans="1:15" ht="240">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
@@ -4449,35 +4614,40 @@
         <v>63</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>144</v>
+        <v>534</v>
       </c>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="M43" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="96">
+    <row r="44" spans="1:15" ht="409.6">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
@@ -4489,27 +4659,32 @@
         <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="M44" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="409.6">
@@ -4517,7 +4692,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -4529,32 +4704,32 @@
         <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="409.6">
@@ -4562,7 +4737,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -4574,43 +4749,43 @@
         <v>72</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="409.6">
       <c r="A47" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C47" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -4619,34 +4794,34 @@
         <v>61</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="192">
+    <row r="48" spans="1:15" ht="304">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
@@ -4658,33 +4833,42 @@
         <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>333</v>
+        <v>537</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="365">
       <c r="A49" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -4693,38 +4877,38 @@
         <v>61</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="409.6">
       <c r="A50" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C50" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -4733,31 +4917,31 @@
         <v>61</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/file/TGE-331-HualienResort.xlsx
+++ b/file/TGE-331-HualienResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D3C017-FE04-D446-9C60-EF0C46A6BBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05278F-42B6-DC4E-85ED-37DF123C52C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="1580" windowWidth="34960" windowHeight="22580" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="8060" yWindow="5260" windowWidth="42080" windowHeight="22580" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2808,10 +2808,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="16" ySplit="1" topLeftCell="Q48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="1" topLeftCell="Q46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2820,13 +2820,14 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="7" width="51.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="51.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
     <col min="14" max="14" width="47.83203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="37.33203125" style="3" customWidth="1"/>
   </cols>
